--- a/data/Model_Values_Sheet.xlsx
+++ b/data/Model_Values_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenna\Documents\GitHub\LysogenyModel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6712FE6-5540-406E-A77C-710F550E4B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C291DF-BE60-4844-AAD9-E5B1898C0262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{C35408E2-7704-4185-9168-9A7177554B9E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
   <si>
     <t>Parameter</t>
   </si>
@@ -701,8 +701,8 @@
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="130997" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -766,7 +766,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -832,8 +832,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="121636" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -897,7 +897,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -963,8 +963,8 @@
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="109774" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1028,7 +1028,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1694,7 +1694,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2143,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EE3442-9E76-4ED7-8AD1-1C15411A3F53}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2541,7 +2541,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2601,6 +2601,132 @@
       </c>
       <c r="G20" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/Model_Values_Sheet.xlsx
+++ b/data/Model_Values_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenna\Documents\GitHub\LysogenyModel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C291DF-BE60-4844-AAD9-E5B1898C0262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CFF6BE-6DA0-40F1-908D-DC9CF0EF6CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{C35408E2-7704-4185-9168-9A7177554B9E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{C35408E2-7704-4185-9168-9A7177554B9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Coinfection" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="76">
   <si>
     <t>Parameter</t>
   </si>
@@ -1691,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E59123-11BF-4CA1-9AE9-00CB0A64215E}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2101,13 +2101,238 @@
         <v>10000000</v>
       </c>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>44837</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0.17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1000000000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1.0600000000000001E-8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>0.02</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34">
+        <v>0.1338</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H18" r:id="rId1" xr:uid="{DEA094BF-12BC-4B7A-9C07-F0096178B29B}"/>
     <hyperlink ref="H19" r:id="rId2" xr:uid="{E6FEB5AC-180D-4C76-BA03-2C6E835BF58F}"/>
+    <hyperlink ref="H31" r:id="rId3" xr:uid="{377533F1-A29C-4084-93BE-777C4ED767F4}"/>
+    <hyperlink ref="H32" r:id="rId4" xr:uid="{2875303F-6F36-4E69-BE8B-1995C56249D5}"/>
+    <hyperlink ref="H36" r:id="rId5" xr:uid="{3DB60037-250E-4B66-B2F7-3E3AB2FA36FC}"/>
+    <hyperlink ref="H37" r:id="rId6" xr:uid="{EF81A138-277F-4119-8244-80B001EB32BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2145,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EE3442-9E76-4ED7-8AD1-1C15411A3F53}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2605,7 +2830,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>44817</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2757,6 +2982,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100566EA1D9C2F11D49886C5CB14C2BFC3B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b42fd31e75d03bab02b7bbaac6794d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5748fdad-25c9-4aa3-b20f-7b0a60abbe15" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="226bad744d9f83fd706fc8e933d93a61" ns3:_="">
     <xsd:import namespace="5748fdad-25c9-4aa3-b20f-7b0a60abbe15"/>
@@ -2902,35 +3142,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA35F43-98D9-47EE-A203-2DAAD2C58C2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71FACF0-A6B8-4738-AAFA-770C23AF0C41}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5748fdad-25c9-4aa3-b20f-7b0a60abbe15"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2952,9 +3167,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71FACF0-A6B8-4738-AAFA-770C23AF0C41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA35F43-98D9-47EE-A203-2DAAD2C58C2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5748fdad-25c9-4aa3-b20f-7b0a60abbe15"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/Model_Values_Sheet.xlsx
+++ b/data/Model_Values_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenna\Documents\GitHub\LysogenyModel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CFF6BE-6DA0-40F1-908D-DC9CF0EF6CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C291DF-BE60-4844-AAD9-E5B1898C0262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{C35408E2-7704-4185-9168-9A7177554B9E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{C35408E2-7704-4185-9168-9A7177554B9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Coinfection" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
   <si>
     <t>Parameter</t>
   </si>
@@ -1691,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E59123-11BF-4CA1-9AE9-00CB0A64215E}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2101,238 +2101,13 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>44837</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28">
-        <v>0.17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1000000000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1.0600000000000001E-8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33">
-        <v>0.02</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34">
-        <v>0.1338</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35">
-        <v>0.53539999999999999</v>
-      </c>
-      <c r="D35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H18" r:id="rId1" xr:uid="{DEA094BF-12BC-4B7A-9C07-F0096178B29B}"/>
     <hyperlink ref="H19" r:id="rId2" xr:uid="{E6FEB5AC-180D-4C76-BA03-2C6E835BF58F}"/>
-    <hyperlink ref="H31" r:id="rId3" xr:uid="{377533F1-A29C-4084-93BE-777C4ED767F4}"/>
-    <hyperlink ref="H32" r:id="rId4" xr:uid="{2875303F-6F36-4E69-BE8B-1995C56249D5}"/>
-    <hyperlink ref="H36" r:id="rId5" xr:uid="{3DB60037-250E-4B66-B2F7-3E3AB2FA36FC}"/>
-    <hyperlink ref="H37" r:id="rId6" xr:uid="{EF81A138-277F-4119-8244-80B001EB32BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2370,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EE3442-9E76-4ED7-8AD1-1C15411A3F53}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2830,7 +2605,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>44837</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2982,21 +2757,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100566EA1D9C2F11D49886C5CB14C2BFC3B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b42fd31e75d03bab02b7bbaac6794d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5748fdad-25c9-4aa3-b20f-7b0a60abbe15" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="226bad744d9f83fd706fc8e933d93a61" ns3:_="">
     <xsd:import namespace="5748fdad-25c9-4aa3-b20f-7b0a60abbe15"/>
@@ -3142,10 +2902,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71FACF0-A6B8-4738-AAFA-770C23AF0C41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA35F43-98D9-47EE-A203-2DAAD2C58C2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5748fdad-25c9-4aa3-b20f-7b0a60abbe15"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3167,19 +2952,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA35F43-98D9-47EE-A203-2DAAD2C58C2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71FACF0-A6B8-4738-AAFA-770C23AF0C41}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5748fdad-25c9-4aa3-b20f-7b0a60abbe15"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>